--- a/data_selection/result/地区生产总值-江门-解释变量V4-先行V4.xlsx
+++ b/data_selection/result/地区生产总值-江门-解释变量V4-先行V4.xlsx
@@ -766,42 +766,42 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>拥堵延时指数:江门:月:同比</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>加工贸易出口</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>全员劳动生产率</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>工业用电量</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>工业销售产值</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>消费品价格指数</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>出口交货值</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>全社会用电量</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>消费品价格指数</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>全员劳动生产率</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>加工贸易出口</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>拥堵延时指数:江门:月:同比</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>工业销售产值</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>工业用电量</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>出口交货值</t>
         </is>
       </c>
     </row>
@@ -833,28 +833,28 @@
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3">
@@ -870,27 +870,27 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="n">
-        <v>6.5</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>3.3</v>
+        <v>-9.1</v>
       </c>
       <c r="K3" t="n">
         <v>15.2</v>
       </c>
       <c r="L3" t="n">
-        <v>-9.1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+        <v>4.18</v>
+      </c>
+      <c r="M3" t="n">
+        <v>10</v>
+      </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>3.3</v>
       </c>
       <c r="O3" t="n">
-        <v>4.18</v>
+        <v>8.5</v>
       </c>
       <c r="P3" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="4">
@@ -910,27 +910,27 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="n">
-        <v>4.6</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>3.5</v>
+        <v>-11.9</v>
       </c>
       <c r="K4" t="n">
         <v>14.2</v>
       </c>
       <c r="L4" t="n">
-        <v>-11.9</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>2.69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9.9</v>
+      </c>
       <c r="N4" t="n">
-        <v>9.9</v>
+        <v>3.5</v>
       </c>
       <c r="O4" t="n">
-        <v>2.69</v>
+        <v>8.1</v>
       </c>
       <c r="P4" t="n">
-        <v>8.1</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="5">
@@ -956,27 +956,27 @@
       <c r="H5" t="n">
         <v>-11</v>
       </c>
-      <c r="I5" t="n">
-        <v>5.5</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>3.4</v>
+        <v>-11.9</v>
       </c>
       <c r="K5" t="n">
         <v>15.2</v>
       </c>
       <c r="L5" t="n">
-        <v>-11.9</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>4.23</v>
+      </c>
+      <c r="M5" t="n">
+        <v>8</v>
+      </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="O5" t="n">
-        <v>4.23</v>
+        <v>5</v>
       </c>
       <c r="P5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="6">
@@ -1002,27 +1002,27 @@
       <c r="H6" t="n">
         <v>0.7</v>
       </c>
-      <c r="I6" t="n">
-        <v>5.7</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>3.1</v>
+        <v>-12.3</v>
       </c>
       <c r="K6" t="n">
         <v>12.1</v>
       </c>
       <c r="L6" t="n">
-        <v>-12.3</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>4.99</v>
+      </c>
+      <c r="M6" t="n">
+        <v>7.1</v>
+      </c>
       <c r="N6" t="n">
-        <v>7.1</v>
+        <v>3.1</v>
       </c>
       <c r="O6" t="n">
-        <v>4.99</v>
+        <v>4</v>
       </c>
       <c r="P6" t="n">
-        <v>4</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="7">
@@ -1048,27 +1048,27 @@
       <c r="H7" t="n">
         <v>4.1</v>
       </c>
-      <c r="I7" t="n">
-        <v>5.7</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>-10.7</v>
       </c>
       <c r="K7" t="n">
         <v>13.5</v>
       </c>
       <c r="L7" t="n">
-        <v>-10.7</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>5.18</v>
+      </c>
+      <c r="M7" t="n">
+        <v>7.7</v>
+      </c>
       <c r="N7" t="n">
-        <v>7.7</v>
+        <v>3</v>
       </c>
       <c r="O7" t="n">
-        <v>5.18</v>
+        <v>5</v>
       </c>
       <c r="P7" t="n">
-        <v>5</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="8">
@@ -1096,27 +1096,27 @@
       <c r="H8" t="n">
         <v>4.1</v>
       </c>
-      <c r="I8" t="n">
-        <v>5.2</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>2.8</v>
+        <v>-10.2</v>
       </c>
       <c r="K8" t="n">
         <v>13.6</v>
       </c>
       <c r="L8" t="n">
-        <v>-10.2</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>4.66</v>
+      </c>
+      <c r="M8" t="n">
+        <v>7.5</v>
+      </c>
       <c r="N8" t="n">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="O8" t="n">
-        <v>4.66</v>
+        <v>4.8</v>
       </c>
       <c r="P8" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="9">
@@ -1144,27 +1144,27 @@
       <c r="H9" t="n">
         <v>5.3</v>
       </c>
-      <c r="I9" t="n">
-        <v>3.4</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>2.7</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="K9" t="n">
         <v>12.9</v>
       </c>
       <c r="L9" t="n">
-        <v>-9.300000000000001</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>7.2</v>
+      </c>
       <c r="N9" t="n">
-        <v>7.2</v>
+        <v>2.7</v>
       </c>
       <c r="O9" t="n">
-        <v>2</v>
+        <v>4.7</v>
       </c>
       <c r="P9" t="n">
-        <v>4.7</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="10">
@@ -1192,25 +1192,25 @@
       <c r="H10" t="n">
         <v>2.4</v>
       </c>
-      <c r="I10" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.6</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
         <v>12.2</v>
       </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="M10" t="n">
+        <v>6.8</v>
+      </c>
       <c r="N10" t="n">
-        <v>6.8</v>
+        <v>2.6</v>
       </c>
       <c r="O10" t="n">
-        <v>2.83</v>
+        <v>3.5</v>
       </c>
       <c r="P10" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="11">
@@ -1238,27 +1238,27 @@
       <c r="H11" t="n">
         <v>3.9</v>
       </c>
-      <c r="I11" t="n">
-        <v>4.8</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>2.6</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="K11" t="n">
         <v>11.6</v>
       </c>
       <c r="L11" t="n">
-        <v>-9.300000000000001</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>3.57</v>
+      </c>
+      <c r="M11" t="n">
+        <v>7.1</v>
+      </c>
       <c r="N11" t="n">
-        <v>7.1</v>
+        <v>2.6</v>
       </c>
       <c r="O11" t="n">
-        <v>3.57</v>
+        <v>3</v>
       </c>
       <c r="P11" t="n">
-        <v>3</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="12">
@@ -1286,27 +1286,27 @@
       <c r="H12" t="n">
         <v>2.4</v>
       </c>
-      <c r="I12" t="n">
-        <v>4.8</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>2.6</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="K12" t="n">
         <v>11.5</v>
       </c>
       <c r="L12" t="n">
-        <v>-9.300000000000001</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>4.05</v>
+      </c>
+      <c r="M12" t="n">
+        <v>6.4</v>
+      </c>
       <c r="N12" t="n">
-        <v>6.4</v>
+        <v>2.6</v>
       </c>
       <c r="O12" t="n">
-        <v>4.05</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="13">
@@ -1332,27 +1332,27 @@
         <v>3.2</v>
       </c>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="n">
-        <v>8.6</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>0.7</v>
+        <v>-1.4</v>
       </c>
       <c r="K13" t="n">
         <v>13</v>
       </c>
       <c r="L13" t="n">
-        <v>-1.4</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>2.14</v>
+      </c>
+      <c r="M13" t="n">
+        <v>12.4</v>
+      </c>
       <c r="N13" t="n">
-        <v>12.4</v>
+        <v>0.7</v>
       </c>
       <c r="O13" t="n">
-        <v>2.14</v>
+        <v>2.8</v>
       </c>
       <c r="P13" t="n">
-        <v>2.8</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="14">
@@ -1380,27 +1380,27 @@
       <c r="H14" t="n">
         <v>5.5</v>
       </c>
-      <c r="I14" t="n">
-        <v>9.9</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="K14" t="n">
         <v>13.9</v>
       </c>
       <c r="L14" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>13.79</v>
+      </c>
+      <c r="M14" t="n">
+        <v>12.6</v>
+      </c>
       <c r="N14" t="n">
-        <v>12.6</v>
+        <v>0.4</v>
       </c>
       <c r="O14" t="n">
-        <v>13.79</v>
+        <v>4.3</v>
       </c>
       <c r="P14" t="n">
-        <v>4.3</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="15">
@@ -1430,27 +1430,27 @@
       <c r="H15" t="n">
         <v>12.6</v>
       </c>
-      <c r="I15" t="n">
-        <v>10.2</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>0.3</v>
+        <v>3.7</v>
       </c>
       <c r="K15" t="n">
         <v>15.3</v>
       </c>
       <c r="L15" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>14.22</v>
+      </c>
+      <c r="M15" t="n">
+        <v>12.2</v>
+      </c>
       <c r="N15" t="n">
-        <v>12.2</v>
+        <v>0.3</v>
       </c>
       <c r="O15" t="n">
-        <v>14.22</v>
+        <v>3.5</v>
       </c>
       <c r="P15" t="n">
-        <v>3.5</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="16">
@@ -1480,27 +1480,27 @@
       <c r="H16" t="n">
         <v>13.7</v>
       </c>
-      <c r="I16" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>0.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K16" t="n">
         <v>9.1</v>
       </c>
       <c r="L16" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>9.93</v>
+      </c>
+      <c r="M16" t="n">
+        <v>12</v>
+      </c>
       <c r="N16" t="n">
-        <v>12</v>
+        <v>0.4</v>
       </c>
       <c r="O16" t="n">
-        <v>9.93</v>
+        <v>6.7</v>
       </c>
       <c r="P16" t="n">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="17">
@@ -1530,27 +1530,27 @@
       <c r="H17" t="n">
         <v>21</v>
       </c>
-      <c r="I17" t="n">
-        <v>7.8</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>0.5</v>
+        <v>11.2</v>
       </c>
       <c r="K17" t="n">
         <v>12.1</v>
       </c>
       <c r="L17" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>10.04</v>
+      </c>
+      <c r="M17" t="n">
+        <v>13.3</v>
+      </c>
       <c r="N17" t="n">
-        <v>13.3</v>
+        <v>0.5</v>
       </c>
       <c r="O17" t="n">
-        <v>10.04</v>
+        <v>7.4</v>
       </c>
       <c r="P17" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="18">
@@ -1581,28 +1581,28 @@
         <v>22.3</v>
       </c>
       <c r="I18" t="n">
-        <v>7.2</v>
+        <v>2.02933494072737</v>
       </c>
       <c r="J18" t="n">
-        <v>0.6</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
         <v>11.8</v>
       </c>
       <c r="L18" t="n">
-        <v>10</v>
+        <v>9.51</v>
       </c>
       <c r="M18" t="n">
-        <v>2.02933494072737</v>
+        <v>13.3</v>
       </c>
       <c r="N18" t="n">
-        <v>13.3</v>
+        <v>0.6</v>
       </c>
       <c r="O18" t="n">
-        <v>9.51</v>
+        <v>6.9</v>
       </c>
       <c r="P18" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="19">
@@ -1633,28 +1633,28 @@
         <v>24.8</v>
       </c>
       <c r="I19" t="n">
-        <v>6.9</v>
+        <v>-3.03091944670463</v>
       </c>
       <c r="J19" t="n">
-        <v>0.7</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K19" t="n">
         <v>12.2</v>
       </c>
       <c r="L19" t="n">
-        <v>9.800000000000001</v>
+        <v>9.26</v>
       </c>
       <c r="M19" t="n">
-        <v>-3.03091944670463</v>
+        <v>13.8</v>
       </c>
       <c r="N19" t="n">
-        <v>13.8</v>
+        <v>0.7</v>
       </c>
       <c r="O19" t="n">
-        <v>9.26</v>
+        <v>7</v>
       </c>
       <c r="P19" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="20">
@@ -1685,28 +1685,28 @@
         <v>25.6</v>
       </c>
       <c r="I20" t="n">
-        <v>7.5</v>
+        <v>-5.72390572390571</v>
       </c>
       <c r="J20" t="n">
-        <v>0.7</v>
+        <v>11.5635</v>
       </c>
       <c r="K20" t="n">
         <v>13.6</v>
       </c>
       <c r="L20" t="n">
-        <v>11.5635</v>
+        <v>9.342205999999999</v>
       </c>
       <c r="M20" t="n">
-        <v>-5.72390572390571</v>
+        <v>14.8</v>
       </c>
       <c r="N20" t="n">
-        <v>14.8</v>
+        <v>0.7</v>
       </c>
       <c r="O20" t="n">
-        <v>9.342205999999999</v>
+        <v>7.3</v>
       </c>
       <c r="P20" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="21">
@@ -1737,28 +1737,28 @@
         <v>24.2</v>
       </c>
       <c r="I21" t="n">
-        <v>7.2</v>
+        <v>-5.31701444622794</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8</v>
+        <v>11.4</v>
       </c>
       <c r="K21" t="n">
         <v>13.6</v>
       </c>
       <c r="L21" t="n">
-        <v>11.4</v>
+        <v>8.68</v>
       </c>
       <c r="M21" t="n">
-        <v>-5.31701444622794</v>
+        <v>15.5</v>
       </c>
       <c r="N21" t="n">
-        <v>15.5</v>
+        <v>0.8</v>
       </c>
       <c r="O21" t="n">
-        <v>8.68</v>
+        <v>8</v>
       </c>
       <c r="P21" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="22">
@@ -1789,26 +1789,26 @@
         <v>21.5</v>
       </c>
       <c r="I22" t="n">
-        <v>7.1</v>
+        <v>-7.55512943432406</v>
       </c>
       <c r="J22" t="n">
-        <v>0.8</v>
+        <v>11.6</v>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>11.6</v>
+        <v>8.4</v>
       </c>
       <c r="M22" t="n">
-        <v>-7.55512943432406</v>
+        <v>15</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>0.8</v>
       </c>
       <c r="O22" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="P22" t="n">
-        <v>7.8</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="23">
@@ -1839,19 +1839,19 @@
         <v>20.6322</v>
       </c>
       <c r="I23" t="n">
-        <v>7.1</v>
+        <v>-7.56715853197122</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>-7.56715853197122</v>
-      </c>
+      <c r="L23" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
-      <c r="O23" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="P23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="n">
+        <v>7.1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1881,28 +1881,28 @@
         <v>19.1</v>
       </c>
       <c r="I24" t="n">
-        <v>7.9</v>
+        <v>-11.1499068901304</v>
       </c>
       <c r="J24" t="n">
-        <v>1.8</v>
+        <v>17.3</v>
       </c>
       <c r="K24" t="n">
         <v>24.5</v>
       </c>
       <c r="L24" t="n">
-        <v>17.3</v>
+        <v>13.36</v>
       </c>
       <c r="M24" t="n">
-        <v>-11.1499068901304</v>
+        <v>13.4</v>
       </c>
       <c r="N24" t="n">
-        <v>13.4</v>
+        <v>1.8</v>
       </c>
       <c r="O24" t="n">
-        <v>13.36</v>
+        <v>21.3</v>
       </c>
       <c r="P24" t="n">
-        <v>21.3</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="25">
@@ -1929,28 +1929,28 @@
         <v>14</v>
       </c>
       <c r="I25" t="n">
-        <v>6.6</v>
+        <v>-8.328445747800609</v>
       </c>
       <c r="J25" t="n">
-        <v>1.5</v>
+        <v>16.1</v>
       </c>
       <c r="K25" t="n">
         <v>20.2</v>
       </c>
       <c r="L25" t="n">
-        <v>16.1</v>
+        <v>2.5</v>
       </c>
       <c r="M25" t="n">
-        <v>-8.328445747800609</v>
+        <v>10.4</v>
       </c>
       <c r="N25" t="n">
-        <v>10.4</v>
+        <v>1.5</v>
       </c>
       <c r="O25" t="n">
-        <v>2.5</v>
+        <v>12.9</v>
       </c>
       <c r="P25" t="n">
-        <v>12.9</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="26">
@@ -1973,28 +1973,28 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>6.4</v>
+        <v>-5.10725229826352</v>
       </c>
       <c r="J26" t="n">
-        <v>1.2</v>
+        <v>12.3</v>
       </c>
       <c r="K26" t="n">
         <v>19.5</v>
       </c>
       <c r="L26" t="n">
-        <v>12.3</v>
+        <v>4.6</v>
       </c>
       <c r="M26" t="n">
-        <v>-5.10725229826352</v>
+        <v>10.7</v>
       </c>
       <c r="N26" t="n">
-        <v>10.7</v>
+        <v>1.2</v>
       </c>
       <c r="O26" t="n">
-        <v>4.6</v>
+        <v>12.4</v>
       </c>
       <c r="P26" t="n">
-        <v>12.4</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="27">
@@ -2025,10 +2025,10 @@
         <v>27.2</v>
       </c>
       <c r="I27" t="n">
-        <v>9.5</v>
+        <v>-6.90937561166569</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>6.8</v>
       </c>
       <c r="K27" t="n">
         <v>19.3</v>
@@ -2037,16 +2037,16 @@
         <v>6.8</v>
       </c>
       <c r="M27" t="n">
-        <v>-6.90937561166569</v>
+        <v>10.3</v>
       </c>
       <c r="N27" t="n">
-        <v>10.3</v>
+        <v>1</v>
       </c>
       <c r="O27" t="n">
-        <v>6.8</v>
+        <v>12.2</v>
       </c>
       <c r="P27" t="n">
-        <v>12.2</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="28">
@@ -2077,10 +2077,10 @@
         <v>9.300000000000001</v>
       </c>
       <c r="I28" t="n">
-        <v>7.4</v>
+        <v>-9.208432776451851</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>4.8</v>
       </c>
       <c r="K28" t="n">
         <v>16.9</v>
@@ -2089,16 +2089,16 @@
         <v>4.8</v>
       </c>
       <c r="M28" t="n">
-        <v>-9.208432776451851</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="N28" t="n">
-        <v>9.800000000000001</v>
+        <v>1</v>
       </c>
       <c r="O28" t="n">
-        <v>4.8</v>
+        <v>12.2</v>
       </c>
       <c r="P28" t="n">
-        <v>12.2</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="29">
@@ -2127,28 +2127,28 @@
         <v>3.9</v>
       </c>
       <c r="I29" t="n">
-        <v>7.7</v>
+        <v>-11.5596691610871</v>
       </c>
       <c r="J29" t="n">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="K29" t="n">
         <v>18.3</v>
       </c>
       <c r="L29" t="n">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="M29" t="n">
-        <v>-11.5596691610871</v>
+        <v>10.9</v>
       </c>
       <c r="N29" t="n">
-        <v>10.9</v>
+        <v>1.1</v>
       </c>
       <c r="O29" t="n">
-        <v>5.1</v>
+        <v>13.4</v>
       </c>
       <c r="P29" t="n">
-        <v>13.4</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="30">
@@ -2179,28 +2179,28 @@
         <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>7.6</v>
+        <v>-4.25844346549191</v>
       </c>
       <c r="J30" t="n">
-        <v>1.3</v>
+        <v>3.9</v>
       </c>
       <c r="K30" t="n">
         <v>19.6</v>
       </c>
       <c r="L30" t="n">
-        <v>3.9</v>
+        <v>5.7</v>
       </c>
       <c r="M30" t="n">
-        <v>-4.25844346549191</v>
+        <v>12.6</v>
       </c>
       <c r="N30" t="n">
-        <v>12.6</v>
+        <v>1.3</v>
       </c>
       <c r="O30" t="n">
-        <v>5.7</v>
+        <v>13.3</v>
       </c>
       <c r="P30" t="n">
-        <v>13.3</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="31">
@@ -2231,28 +2231,28 @@
         <v>-0.3</v>
       </c>
       <c r="I31" t="n">
-        <v>6.1</v>
+        <v>-2.28991596638653</v>
       </c>
       <c r="J31" t="n">
-        <v>1.5</v>
+        <v>3.7</v>
       </c>
       <c r="K31" t="n">
         <v>17.4</v>
       </c>
       <c r="L31" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="M31" t="n">
-        <v>-2.28991596638653</v>
+        <v>11.4</v>
       </c>
       <c r="N31" t="n">
-        <v>11.4</v>
+        <v>1.5</v>
       </c>
       <c r="O31" t="n">
-        <v>4.4</v>
+        <v>13.9</v>
       </c>
       <c r="P31" t="n">
-        <v>13.9</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="32">
@@ -2283,28 +2283,28 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>5.7</v>
+        <v>-3.15744861199407</v>
       </c>
       <c r="J32" t="n">
-        <v>1.8</v>
+        <v>5.3</v>
       </c>
       <c r="K32" t="n">
         <v>16.8</v>
       </c>
       <c r="L32" t="n">
-        <v>5.3</v>
+        <v>4.3</v>
       </c>
       <c r="M32" t="n">
-        <v>-3.15744861199407</v>
+        <v>10.8</v>
       </c>
       <c r="N32" t="n">
-        <v>10.8</v>
+        <v>1.8</v>
       </c>
       <c r="O32" t="n">
-        <v>4.3</v>
+        <v>14.1</v>
       </c>
       <c r="P32" t="n">
-        <v>14.1</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="33">
@@ -2333,28 +2333,28 @@
         <v>1.7</v>
       </c>
       <c r="I33" t="n">
-        <v>5.4</v>
+        <v>-3.79589296826384</v>
       </c>
       <c r="J33" t="n">
-        <v>1.9</v>
+        <v>6.2</v>
       </c>
       <c r="K33" t="n">
         <v>16.9</v>
       </c>
       <c r="L33" t="n">
-        <v>6.2</v>
+        <v>3.7</v>
       </c>
       <c r="M33" t="n">
-        <v>-3.79589296826384</v>
+        <v>10.2</v>
       </c>
       <c r="N33" t="n">
-        <v>10.2</v>
+        <v>1.9</v>
       </c>
       <c r="O33" t="n">
-        <v>3.7</v>
+        <v>15.2</v>
       </c>
       <c r="P33" t="n">
-        <v>15.2</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="34">
@@ -2385,28 +2385,28 @@
         <v>1.9</v>
       </c>
       <c r="I34" t="n">
-        <v>5.5</v>
+        <v>-2.21039705280397</v>
       </c>
       <c r="J34" t="n">
-        <v>2</v>
+        <v>5.8</v>
       </c>
       <c r="K34" t="n">
         <v>16.9</v>
       </c>
       <c r="L34" t="n">
-        <v>5.8</v>
+        <v>3.9</v>
       </c>
       <c r="M34" t="n">
-        <v>-2.21039705280397</v>
+        <v>10.2</v>
       </c>
       <c r="N34" t="n">
-        <v>10.2</v>
+        <v>2</v>
       </c>
       <c r="O34" t="n">
-        <v>3.9</v>
+        <v>15.2</v>
       </c>
       <c r="P34" t="n">
-        <v>15.2</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="35">
@@ -2437,26 +2437,26 @@
         <v>4</v>
       </c>
       <c r="I35" t="n">
-        <v>5.5</v>
+        <v>-2.41026984542833</v>
       </c>
       <c r="J35" t="n">
-        <v>2</v>
+        <v>5.7</v>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
-        <v>5.7</v>
+        <v>8</v>
       </c>
       <c r="M35" t="n">
-        <v>-2.41026984542833</v>
+        <v>1.7</v>
       </c>
       <c r="N35" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="O35" t="n">
-        <v>8</v>
+        <v>3.9</v>
       </c>
       <c r="P35" t="n">
-        <v>3.9</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="36">
@@ -2487,26 +2487,26 @@
         <v>5.5</v>
       </c>
       <c r="I36" t="n">
-        <v>4.4</v>
+        <v>-0.682448283216023</v>
       </c>
       <c r="J36" t="n">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.682448283216023</v>
+        <v>4.4</v>
       </c>
       <c r="N36" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O36" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="P36" t="n">
         <v>4.4</v>
-      </c>
-      <c r="O36" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="P36" t="n">
-        <v>4.1</v>
       </c>
     </row>
     <row r="37">
@@ -2537,26 +2537,26 @@
         <v>1.8</v>
       </c>
       <c r="I37" t="n">
-        <v>4.8</v>
+        <v>-3.55220667384284</v>
       </c>
       <c r="J37" t="n">
-        <v>2.9</v>
+        <v>1.8162</v>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>1.8162</v>
+        <v>3.4</v>
       </c>
       <c r="M37" t="n">
-        <v>-3.55220667384284</v>
+        <v>0.1</v>
       </c>
       <c r="N37" t="n">
-        <v>0.1</v>
+        <v>2.9</v>
       </c>
       <c r="O37" t="n">
-        <v>3.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="P37" t="n">
-        <v>8.699999999999999</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="38">
@@ -2587,26 +2587,26 @@
         <v>0.7</v>
       </c>
       <c r="I38" t="n">
-        <v>2.6</v>
+        <v>-3.74264087468461</v>
       </c>
       <c r="J38" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
-        <v>3.7</v>
+        <v>1.3</v>
       </c>
       <c r="M38" t="n">
-        <v>-3.74264087468461</v>
+        <v>-1.3</v>
       </c>
       <c r="N38" t="n">
-        <v>-1.3</v>
+        <v>3.1</v>
       </c>
       <c r="O38" t="n">
-        <v>1.3</v>
+        <v>5.7</v>
       </c>
       <c r="P38" t="n">
-        <v>5.7</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="39">
@@ -2637,26 +2637,26 @@
         <v>5.1</v>
       </c>
       <c r="I39" t="n">
-        <v>2.9</v>
+        <v>-6.59364731653889</v>
       </c>
       <c r="J39" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="M39" t="n">
-        <v>-6.59364731653889</v>
+        <v>-2.1</v>
       </c>
       <c r="N39" t="n">
-        <v>-2.1</v>
+        <v>3.2</v>
       </c>
       <c r="O39" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="P39" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="40">
@@ -2687,26 +2687,26 @@
         <v>6.3202</v>
       </c>
       <c r="I40" t="n">
-        <v>3.5</v>
+        <v>-2.00400801603203</v>
       </c>
       <c r="J40" t="n">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="M40" t="n">
-        <v>-2.00400801603203</v>
+        <v>-3.1</v>
       </c>
       <c r="N40" t="n">
-        <v>-3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O40" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="P40" t="n">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="41">
@@ -2737,26 +2737,26 @@
         <v>6.1</v>
       </c>
       <c r="I41" t="n">
-        <v>3.8</v>
+        <v>-4.05346187554781</v>
       </c>
       <c r="J41" t="n">
-        <v>3.4</v>
+        <v>-0.5</v>
       </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
-        <v>-0.5</v>
+        <v>1.2</v>
       </c>
       <c r="M41" t="n">
-        <v>-4.05346187554781</v>
+        <v>-4.5</v>
       </c>
       <c r="N41" t="n">
-        <v>-4.5</v>
+        <v>3.4</v>
       </c>
       <c r="O41" t="n">
-        <v>1.2</v>
+        <v>-2.5</v>
       </c>
       <c r="P41" t="n">
-        <v>-2.5</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="42">
@@ -2787,26 +2787,26 @@
         <v>5.9</v>
       </c>
       <c r="I42" t="n">
-        <v>4.6</v>
+        <v>-4.94517308105785</v>
       </c>
       <c r="J42" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
-        <v>4.4</v>
+        <v>2</v>
       </c>
       <c r="M42" t="n">
-        <v>-4.94517308105785</v>
+        <v>-3.5</v>
       </c>
       <c r="N42" t="n">
-        <v>-3.5</v>
+        <v>3.5</v>
       </c>
       <c r="O42" t="n">
-        <v>2</v>
+        <v>-3.8</v>
       </c>
       <c r="P42" t="n">
-        <v>-3.8</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="43">
@@ -2837,26 +2837,26 @@
         <v>5.5</v>
       </c>
       <c r="I43" t="n">
-        <v>5</v>
+        <v>-3.36980306345733</v>
       </c>
       <c r="J43" t="n">
-        <v>3.6</v>
+        <v>-4.6</v>
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
-        <v>-4.6</v>
+        <v>2.6</v>
       </c>
       <c r="M43" t="n">
-        <v>-3.36980306345733</v>
+        <v>-3.6</v>
       </c>
       <c r="N43" t="n">
-        <v>-3.6</v>
+        <v>3.6</v>
       </c>
       <c r="O43" t="n">
-        <v>2.6</v>
+        <v>-4.8</v>
       </c>
       <c r="P43" t="n">
-        <v>-4.8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
@@ -2887,26 +2887,26 @@
         <v>5.4</v>
       </c>
       <c r="I44" t="n">
-        <v>4.7</v>
+        <v>-3.44976282880552</v>
       </c>
       <c r="J44" t="n">
-        <v>3.9</v>
+        <v>-6.6</v>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
-        <v>-6.6</v>
+        <v>3.1</v>
       </c>
       <c r="M44" t="n">
-        <v>-3.44976282880552</v>
+        <v>-3.8</v>
       </c>
       <c r="N44" t="n">
-        <v>-3.8</v>
+        <v>3.9</v>
       </c>
       <c r="O44" t="n">
-        <v>3.1</v>
+        <v>-6</v>
       </c>
       <c r="P44" t="n">
-        <v>-6</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="45">
@@ -2937,28 +2937,28 @@
         <v>4.4</v>
       </c>
       <c r="I45" t="n">
-        <v>4.4</v>
+        <v>-4.26956885726244</v>
       </c>
       <c r="J45" t="n">
-        <v>4.2</v>
+        <v>-7.3</v>
       </c>
       <c r="K45" t="n">
         <v>5.3</v>
       </c>
       <c r="L45" t="n">
-        <v>-7.3</v>
+        <v>2.8</v>
       </c>
       <c r="M45" t="n">
-        <v>-4.26956885726244</v>
+        <v>-3.3</v>
       </c>
       <c r="N45" t="n">
-        <v>-3.3</v>
+        <v>4.2</v>
       </c>
       <c r="O45" t="n">
-        <v>2.8</v>
+        <v>-6.2</v>
       </c>
       <c r="P45" t="n">
-        <v>-6.2</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="46">
@@ -2989,28 +2989,28 @@
         <v>5.7</v>
       </c>
       <c r="I46" t="n">
-        <v>-17.2</v>
+        <v>-10.4161073825504</v>
       </c>
       <c r="J46" t="n">
-        <v>9.76459</v>
+        <v>-43.9</v>
       </c>
       <c r="K46" t="n">
         <v>-26.5</v>
       </c>
       <c r="L46" t="n">
-        <v>-43.9</v>
+        <v>-27.4</v>
       </c>
       <c r="M46" t="n">
-        <v>-10.4161073825504</v>
+        <v>-23</v>
       </c>
       <c r="N46" t="n">
-        <v>-23</v>
+        <v>9.76459</v>
       </c>
       <c r="O46" t="n">
-        <v>-27.4</v>
+        <v>-22.2</v>
       </c>
       <c r="P46" t="n">
-        <v>-22.2</v>
+        <v>-17.2</v>
       </c>
     </row>
     <row r="47">
@@ -3039,28 +3039,28 @@
         <v>5.2</v>
       </c>
       <c r="I47" t="n">
-        <v>-9</v>
+        <v>-12.754992484432</v>
       </c>
       <c r="J47" t="n">
-        <v>9.1</v>
+        <v>-29</v>
       </c>
       <c r="K47" t="n">
         <v>-21.5</v>
       </c>
       <c r="L47" t="n">
-        <v>-29</v>
+        <v>-13</v>
       </c>
       <c r="M47" t="n">
-        <v>-12.754992484432</v>
+        <v>-20.7</v>
       </c>
       <c r="N47" t="n">
-        <v>-20.7</v>
+        <v>9.1</v>
       </c>
       <c r="O47" t="n">
-        <v>-13</v>
+        <v>-16.1</v>
       </c>
       <c r="P47" t="n">
-        <v>-16.1</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="48">
@@ -3091,28 +3091,28 @@
         <v>7</v>
       </c>
       <c r="I48" t="n">
-        <v>-7.1</v>
+        <v>-5.37946428571429</v>
       </c>
       <c r="J48" t="n">
-        <v>8.6</v>
+        <v>-26.9</v>
       </c>
       <c r="K48" t="n">
         <v>-14.7</v>
       </c>
       <c r="L48" t="n">
-        <v>-26.9</v>
+        <v>-9</v>
       </c>
       <c r="M48" t="n">
-        <v>-5.37946428571429</v>
+        <v>-15.4</v>
       </c>
       <c r="N48" t="n">
-        <v>-15.4</v>
+        <v>8.6</v>
       </c>
       <c r="O48" t="n">
-        <v>-9</v>
+        <v>-17.7</v>
       </c>
       <c r="P48" t="n">
-        <v>-17.7</v>
+        <v>-7.1</v>
       </c>
     </row>
     <row r="49">
@@ -3143,28 +3143,28 @@
         <v>-22</v>
       </c>
       <c r="I49" t="n">
-        <v>-3.7</v>
+        <v>-2.16251638269987</v>
       </c>
       <c r="J49" t="n">
-        <v>8</v>
+        <v>-26.6</v>
       </c>
       <c r="K49" t="n">
         <v>-9.5</v>
       </c>
       <c r="L49" t="n">
-        <v>-26.6</v>
+        <v>-6.3</v>
       </c>
       <c r="M49" t="n">
-        <v>-2.16251638269987</v>
+        <v>-11.8</v>
       </c>
       <c r="N49" t="n">
-        <v>-11.8</v>
+        <v>8</v>
       </c>
       <c r="O49" t="n">
-        <v>-6.3</v>
+        <v>-17.1</v>
       </c>
       <c r="P49" t="n">
-        <v>-17.1</v>
+        <v>-3.7</v>
       </c>
     </row>
     <row r="50">
@@ -3195,28 +3195,28 @@
         <v>-6.1</v>
       </c>
       <c r="I50" t="n">
-        <v>-1.7</v>
+        <v>3.89305816135084</v>
       </c>
       <c r="J50" t="n">
-        <v>7.6</v>
+        <v>-25.5</v>
       </c>
       <c r="K50" t="n">
         <v>-4.4</v>
       </c>
       <c r="L50" t="n">
-        <v>-25.5</v>
+        <v>-3.4</v>
       </c>
       <c r="M50" t="n">
-        <v>3.89305816135084</v>
+        <v>-9.1</v>
       </c>
       <c r="N50" t="n">
-        <v>-9.1</v>
+        <v>7.6</v>
       </c>
       <c r="O50" t="n">
-        <v>-3.4</v>
+        <v>-14.6</v>
       </c>
       <c r="P50" t="n">
-        <v>-14.6</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="51">
@@ -3247,28 +3247,28 @@
         <v>-3.7</v>
       </c>
       <c r="I51" t="n">
-        <v>0.7</v>
+        <v>3.24926153147012</v>
       </c>
       <c r="J51" t="n">
-        <v>7.3</v>
+        <v>-23.8</v>
       </c>
       <c r="K51" t="n">
         <v>-2.2</v>
       </c>
       <c r="L51" t="n">
-        <v>-23.8</v>
+        <v>-1.5</v>
       </c>
       <c r="M51" t="n">
-        <v>3.24926153147012</v>
+        <v>-6.1</v>
       </c>
       <c r="N51" t="n">
-        <v>-6.1</v>
+        <v>7.3</v>
       </c>
       <c r="O51" t="n">
-        <v>-1.5</v>
+        <v>-12.3</v>
       </c>
       <c r="P51" t="n">
-        <v>-12.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="52">
@@ -3299,28 +3299,28 @@
         <v>-4.2</v>
       </c>
       <c r="I52" t="n">
-        <v>1.7</v>
+        <v>2.69467915049101</v>
       </c>
       <c r="J52" t="n">
-        <v>7</v>
+        <v>-22.4</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>-22.4</v>
+        <v>-0.1</v>
       </c>
       <c r="M52" t="n">
-        <v>2.69467915049101</v>
+        <v>-3.9</v>
       </c>
       <c r="N52" t="n">
-        <v>-3.9</v>
+        <v>7</v>
       </c>
       <c r="O52" t="n">
-        <v>-0.1</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="P52" t="n">
-        <v>-9.300000000000001</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="53">
@@ -3351,28 +3351,28 @@
         <v>-3.1</v>
       </c>
       <c r="I53" t="n">
-        <v>3.1</v>
+        <v>6.94413028726531</v>
       </c>
       <c r="J53" t="n">
-        <v>6.6</v>
+        <v>-20.9</v>
       </c>
       <c r="K53" t="n">
         <v>1</v>
       </c>
       <c r="L53" t="n">
-        <v>-20.9</v>
+        <v>1.8</v>
       </c>
       <c r="M53" t="n">
-        <v>6.94413028726531</v>
+        <v>-2.9</v>
       </c>
       <c r="N53" t="n">
-        <v>-2.9</v>
+        <v>6.6</v>
       </c>
       <c r="O53" t="n">
-        <v>1.8</v>
+        <v>-6.1</v>
       </c>
       <c r="P53" t="n">
-        <v>-6.1</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="54">
@@ -3403,28 +3403,28 @@
         <v>0.3</v>
       </c>
       <c r="I54" t="n">
-        <v>3.3</v>
+        <v>3.66847826086959</v>
       </c>
       <c r="J54" t="n">
-        <v>6.1</v>
+        <v>-19.1</v>
       </c>
       <c r="K54" t="n">
         <v>1.2</v>
       </c>
       <c r="L54" t="n">
-        <v>-19.1</v>
+        <v>2.597332</v>
       </c>
       <c r="M54" t="n">
-        <v>3.66847826086959</v>
+        <v>-1.7</v>
       </c>
       <c r="N54" t="n">
-        <v>-1.7</v>
+        <v>6.1</v>
       </c>
       <c r="O54" t="n">
-        <v>2.597332</v>
+        <v>-4.7</v>
       </c>
       <c r="P54" t="n">
-        <v>-4.7</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="55">
@@ -3455,28 +3455,28 @@
         <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>4.2</v>
+        <v>1.07190710138454</v>
       </c>
       <c r="J55" t="n">
-        <v>5.6</v>
+        <v>-18.6</v>
       </c>
       <c r="K55" t="n">
         <v>1.8</v>
       </c>
       <c r="L55" t="n">
-        <v>-18.6</v>
+        <v>3.9</v>
       </c>
       <c r="M55" t="n">
-        <v>1.07190710138454</v>
+        <v>-0.6</v>
       </c>
       <c r="N55" t="n">
-        <v>-0.6</v>
+        <v>5.6</v>
       </c>
       <c r="O55" t="n">
-        <v>3.9</v>
+        <v>-3.3</v>
       </c>
       <c r="P55" t="n">
-        <v>-3.3</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="56">
@@ -3507,28 +3507,28 @@
         <v>3.3</v>
       </c>
       <c r="I56" t="n">
-        <v>4.8</v>
+        <v>5.90292960209881</v>
       </c>
       <c r="J56" t="n">
-        <v>5.2</v>
+        <v>-17</v>
       </c>
       <c r="K56" t="n">
         <v>2.1</v>
       </c>
       <c r="L56" t="n">
-        <v>-17</v>
+        <v>4.3</v>
       </c>
       <c r="M56" t="n">
-        <v>5.90292960209881</v>
+        <v>0.6</v>
       </c>
       <c r="N56" t="n">
-        <v>0.6</v>
+        <v>5.2</v>
       </c>
       <c r="O56" t="n">
-        <v>4.3</v>
+        <v>-1.5</v>
       </c>
       <c r="P56" t="n">
-        <v>-1.5</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="57">
@@ -3559,28 +3559,28 @@
         <v>3.9</v>
       </c>
       <c r="I57" t="n">
-        <v>43.2</v>
+        <v>9.97902307461796</v>
       </c>
       <c r="J57" t="n">
-        <v>-0.7</v>
+        <v>34.4</v>
       </c>
       <c r="K57" t="n">
         <v>45</v>
       </c>
       <c r="L57" t="n">
-        <v>34.4</v>
+        <v>67.2</v>
       </c>
       <c r="M57" t="n">
-        <v>9.97902307461796</v>
+        <v>54.7</v>
       </c>
       <c r="N57" t="n">
-        <v>54.7</v>
+        <v>-0.7</v>
       </c>
       <c r="O57" t="n">
-        <v>67.2</v>
+        <v>54.3</v>
       </c>
       <c r="P57" t="n">
-        <v>54.3</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="58">
@@ -3611,28 +3611,28 @@
         <v>5.4</v>
       </c>
       <c r="I58" t="n">
-        <v>32.71</v>
+        <v>11.1247846418902</v>
       </c>
       <c r="J58" t="n">
-        <v>-0.1</v>
+        <v>18.8</v>
       </c>
       <c r="K58" t="n">
         <v>38.6</v>
       </c>
       <c r="L58" t="n">
-        <v>18.8</v>
+        <v>41</v>
       </c>
       <c r="M58" t="n">
-        <v>11.1247846418902</v>
+        <v>46.5</v>
       </c>
       <c r="N58" t="n">
-        <v>46.5</v>
+        <v>-0.1</v>
       </c>
       <c r="O58" t="n">
-        <v>41</v>
+        <v>45.2</v>
       </c>
       <c r="P58" t="n">
-        <v>45.2</v>
+        <v>32.71</v>
       </c>
     </row>
     <row r="59">
@@ -3663,26 +3663,26 @@
         <v>7.4</v>
       </c>
       <c r="I59" t="n">
-        <v>29.7</v>
+        <v>5.04836046237317</v>
       </c>
       <c r="J59" t="n">
-        <v>0.3</v>
+        <v>16</v>
       </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
-        <v>16</v>
+        <v>35.08</v>
       </c>
       <c r="M59" t="n">
-        <v>5.04836046237317</v>
+        <v>40</v>
       </c>
       <c r="N59" t="n">
-        <v>40</v>
+        <v>0.3</v>
       </c>
       <c r="O59" t="n">
-        <v>35.08</v>
+        <v>41.4</v>
       </c>
       <c r="P59" t="n">
-        <v>41.4</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="60">
@@ -3712,13 +3712,13 @@
       <c r="H60" t="n">
         <v>63.9</v>
       </c>
-      <c r="I60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>-1.29493190444295</v>
+      </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>-1.29493190444295</v>
-      </c>
+      <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
